--- a/forecasting/results.xlsx
+++ b/forecasting/results.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckato\Documents\GitHub\metals-research\forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="6360" tabRatio="638"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
-  <si>
-    <t>Results - Forecasting</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="101">
   <si>
     <t>Preprocessing Method</t>
   </si>
@@ -57,13 +54,286 @@
   </si>
   <si>
     <t>Just Moving Average</t>
+  </si>
+  <si>
+    <t>Diff()</t>
+  </si>
+  <si>
+    <t>Linear Regression</t>
+  </si>
+  <si>
+    <t>Test/Training Indices</t>
+  </si>
+  <si>
+    <t>Train :'2018-10-07', Test: '2018-10-14'</t>
+  </si>
+  <si>
+    <t>Train :'2018-10-12', Test: '2018-10-14'</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>5 lags</t>
+  </si>
+  <si>
+    <t>10 lags</t>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
+  </si>
+  <si>
+    <t>10 Lags</t>
+  </si>
+  <si>
+    <t>Optimal alpha: 1</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Adaboost</t>
+  </si>
+  <si>
+    <t>'learning_rate': 0.001, 'n_estimators': 50</t>
+  </si>
+  <si>
+    <t>'min_samples_leaf': 0.15, 'n_estimators': 50</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>KNN Regression</t>
+  </si>
+  <si>
+    <t>K = 4</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'alpha': 1e-05}</t>
+  </si>
+  <si>
+    <t>Polynomial regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWM preprocessing? And unscaling? </t>
+  </si>
+  <si>
+    <t>Changing number of lags and adding gap</t>
+  </si>
+  <si>
+    <t>Polynomial Regression (deg2)</t>
+  </si>
+  <si>
+    <t>Polynomial Regression (deg3)</t>
+  </si>
+  <si>
+    <t>Moving Average</t>
+  </si>
+  <si>
+    <t>10 lags, moving average 4 weeks</t>
+  </si>
+  <si>
+    <t>Alpha: 1</t>
+  </si>
+  <si>
+    <t>LASSO Regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'learning_rate': 0.0001, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>Random Forest Regressor</t>
+  </si>
+  <si>
+    <t>{'min_samples_leaf': 0.15, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t>Change window size of moving average stationarization</t>
+  </si>
+  <si>
+    <t>Polynomial (deg=2) Regression</t>
+  </si>
+  <si>
+    <t>Polynomial (deg=3) Regression</t>
+  </si>
+  <si>
+    <t>10 lags, moving average 7 weeks</t>
+  </si>
+  <si>
+    <t>10 lags, moving average 10 weeks</t>
+  </si>
+  <si>
+    <t>GAPS: 52 weeks</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.0001, 'n_estimators': 100}</t>
+  </si>
+  <si>
+    <t>Polynomial (deg=2)</t>
+  </si>
+  <si>
+    <t>Polynomial (deg=3)</t>
+  </si>
+  <si>
+    <t>Polynomial (deg=4)</t>
+  </si>
+  <si>
+    <t>15 lags, moving avg 10 weeks</t>
+  </si>
+  <si>
+    <t>10 lags, moving avg 15 weeks</t>
+  </si>
+  <si>
+    <t>10 lags, moving avg 7 weeks</t>
+  </si>
+  <si>
+    <t>10 lags, moving avg 4 weeks</t>
+  </si>
+  <si>
+    <t>15 lags, moving avg 7 weeks</t>
+  </si>
+  <si>
+    <t>Changing to business days or months or years units</t>
+  </si>
+  <si>
+    <t>Changing data minimum length as 1990's</t>
+  </si>
+  <si>
+    <t>5 lags, moving avg 7 weeks</t>
+  </si>
+  <si>
+    <t>By Month</t>
+  </si>
+  <si>
+    <t>By Business Day</t>
+  </si>
+  <si>
+    <t>K=6</t>
+  </si>
+  <si>
+    <t>5 lags, moving avg 14 days</t>
+  </si>
+  <si>
+    <t>10 lags, moving avg 14 days</t>
+  </si>
+  <si>
+    <t>LASSO (rerun)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question…. IS UNSCALING CORRECT WITH GAP??? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try changing lag times for daily from every day to every 1st day of the month! </t>
+  </si>
+  <si>
+    <t>Try EWM</t>
+  </si>
+  <si>
+    <t>Next: Do confidence intervals</t>
+  </si>
+  <si>
+    <t>Add other data</t>
+  </si>
+  <si>
+    <t>Creating future predictions and output to dashboard</t>
+  </si>
+  <si>
+    <t>TRY changing scaling method from difference to DIVIDE BY!!</t>
+  </si>
+  <si>
+    <t>EWM</t>
+  </si>
+  <si>
+    <t>10 2-day lags</t>
+  </si>
+  <si>
+    <t>261 Day Gap</t>
+  </si>
+  <si>
+    <t>Polynomial (3)</t>
+  </si>
+  <si>
+    <t>k=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'learning_rate': 0.0001, 'n_estimators': 150}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {'learning_rate': 0.001, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>10 1-month lags, 8 week window</t>
+  </si>
+  <si>
+    <t>10 2-week lags, 8 week window</t>
+  </si>
+  <si>
+    <t>10 1-month lags, 4 week window</t>
+  </si>
+  <si>
+    <t>alpha=1</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.001, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>k=7</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Polynomial Degree 3</t>
+  </si>
+  <si>
+    <t>10 2-week lags, 4 week window</t>
+  </si>
+  <si>
+    <t>LAsso</t>
+  </si>
+  <si>
+    <t>{'learning_rate': 0.0001, 'n_estimators': 50}</t>
+  </si>
+  <si>
+    <t>10 1-month lags, moving 4 week window</t>
+  </si>
+  <si>
+    <t>10 1-month lags, 2 week window</t>
+  </si>
+  <si>
+    <t>Polynomial 3</t>
+  </si>
+  <si>
+    <t>10 1-month lags, 1 week window</t>
+  </si>
+  <si>
+    <t>K=3</t>
+  </si>
+  <si>
+    <t>Polynomial</t>
+  </si>
+  <si>
+    <t>alpha = 1</t>
+  </si>
+  <si>
+    <t>LASSO</t>
+  </si>
+  <si>
+    <t>10 2-week lags, 3 week window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +363,49 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -136,11 +453,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,49 +754,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="20.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" customWidth="1"/>
     <col min="5" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -476,15 +812,15 @@
         <v>6656.2405098666804</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -493,15 +829,15 @@
         <v>6259.9854678155098</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>6</v>
@@ -510,15 +846,15 @@
         <v>5943.1156510665996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -526,16 +862,19 @@
       <c r="G5" s="3">
         <v>6015.7692430255101</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="M5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>14</v>
@@ -543,21 +882,27 @@
       <c r="G6" s="3">
         <v>5752.6709319162701</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="M6" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -565,16 +910,19 @@
       <c r="G8" s="3">
         <v>5572.4108198182903</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="M8" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>4</v>
@@ -582,16 +930,19 @@
       <c r="G9" s="3">
         <v>5502.4645649198901</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="M9" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -599,16 +950,19 @@
       <c r="G10" s="3">
         <v>5719.8950673559602</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="M10" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -616,19 +970,1386 @@
       <c r="G11" s="3">
         <v>5745.1467348546603</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="M11" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M12" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
       </c>
       <c r="G13" s="3">
         <v>1766.95280059474</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M14" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M15" s="8"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>1099</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1405.4151066499701</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1163.17210031072</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1052.2993969505101</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1052.2993969680799</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1052.2993969505101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1350.7171790115599</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1053.20324999075</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1266.11915094339</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1056.1740496518801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1051.6959968650399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="3">
+        <v>508.66785187341202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="3">
+        <v>508.66785187341799</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3">
+        <v>508.66773995663402</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="3">
+        <v>574.80379974104198</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="3">
+        <v>771.83385765456205</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="3">
+        <v>520.79890594536403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="3">
+        <v>525.24063641637599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="3">
+        <v>390.52663840910998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="3">
+        <v>342.80979548340298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1483.6153618563101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1503.4747259779999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1955.1500878327199</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1484.41389765445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1909.1590879686601</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2426.7254118865999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="3">
+        <v>44975.483701518096</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1505.96776082936</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1549.31670031412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1449.84327346241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="3">
+        <v>1464.86961726968</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="3">
+        <v>1472.64504455099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="3">
+        <v>2123.0777177163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="7">
+        <v>1189.61612718227</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="7">
+        <v>1183.15650096373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1200.41437985685</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B61" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1882.3947031969701</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1055.0634204258299</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B64" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1199.13270673799</v>
+      </c>
+      <c r="H66" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1173.80122055469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B68" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1841.9474071474599</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B69" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1774.2063334859199</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B70" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>82</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2378.9157594511198</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B71" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1521.6722751539801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="11">
+        <v>1575.15699983526</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="7">
+        <v>974</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1417.29470968191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B76" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" t="s">
+        <v>83</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1401.2053402117699</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B77" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1478.8514046243499</v>
+      </c>
+      <c r="H77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="F78" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1389.9314909003499</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="F79" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1467.76259271919</v>
+      </c>
+      <c r="H79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1371.6708766239699</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F82" t="s">
+        <v>100</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1336.64916343205</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1466.22949082271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1045.2176119778401</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="F85" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1301.4242645427801</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>62</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1482.2815163201601</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" t="s">
+        <v>93</v>
+      </c>
+      <c r="G91" s="3">
+        <v>1253.45387358726</v>
+      </c>
+      <c r="H91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" s="3">
+        <v>1264.1516329231299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
+      <c r="B93" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>93</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1364.1369552512499</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>62</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="F95" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1468.4623044437201</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B96" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
+        <v>95</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1939.79238701144</v>
+      </c>
+      <c r="H96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1309.3366641329401</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B98" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" t="s">
+        <v>95</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1432.2157441524</v>
+      </c>
+      <c r="H98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G102" s="3">
+        <v>1628.8384279731199</v>
       </c>
     </row>
   </sheetData>
